--- a/src/FPA/calcium640D/Doc/Code registres.xlsx
+++ b/src/FPA/calcium640D/Doc/Code registres.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Telops\FIR-00251-Proc\src\FPA\calcium640D\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082E1EDC-8F8D-49A5-A00E-489A6318E758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4319299-EE0B-4B9A-89FB-FA047794C70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{F83EDB67-2855-4834-BEDD-49C4A781CA7F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="115">
   <si>
     <t xml:space="preserve">      /* bGenCtrl */             {.addr = 1,   .data = 101},</t>
   </si>
@@ -90,15 +90,6 @@
     <t xml:space="preserve">      /* bPixTstNOCCnt */        {.addr = 21,  .data = 8},</t>
   </si>
   <si>
-    <t xml:space="preserve">      /* bIntCntLSB */           {.addr = 22,  .data = 9},</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      /* bIntCnt */              {.addr = 23,  .data = 0},</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      /* bIntCntMSB */           {.addr = 24,  .data = 0},</t>
-  </si>
-  <si>
     <t xml:space="preserve">      /* bFrmHoldOffLSB */       {.addr = 25,  .data = 0},</t>
   </si>
   <si>
@@ -114,12 +105,6 @@
     <t xml:space="preserve">      /* bClkCtrlDSMDiv */       {.addr = 29,  .data = 1},</t>
   </si>
   <si>
-    <t xml:space="preserve">      /* bDSMCyclesLSB */        {.addr = 30,  .data = 0},</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      /* bDSMCyclesMSB */        {.addr = 31,  .data = 0},</t>
-  </si>
-  <si>
     <t xml:space="preserve">      /* bDSMDeltaCnt */         {.addr = 32,  .data = 1},</t>
   </si>
   <si>
@@ -127,18 +112,6 @@
   </si>
   <si>
     <t xml:space="preserve">      /* bDSMQRstCnt */          {.addr = 34,  .data = 3},</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      /* bDSMDelayCntLSB */      {.addr = 35,  .data = 0},</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      /* bDSMDelayCntMSB */      {.addr = 36,  .data = 0},</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      /* bDSMInitDelayCntLSB */  {.addr = 37,  .data = 0},</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      /* bDSMInitDelayCntMSB */  {.addr = 38,  .data = 0},</t>
   </si>
   <si>
     <t xml:space="preserve">      /* bDSMSeedRowsSel */      {.addr = 39,  .data = 6},</t>
@@ -757,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C837B00-F599-4C8F-BF7E-9C796F3CBCF4}">
-  <dimension ref="A1:M122"/>
+  <dimension ref="A1:M113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M122"/>
+      <selection activeCell="G1" sqref="G1:G113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,21 +753,20 @@
         <v>18</v>
       </c>
       <c r="G1">
-        <f>MAX(F$1:F$122)</f>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I1" t="str">
         <f>MID(A1,10,F1-10)</f>
         <v>bGenCtrl</v>
       </c>
       <c r="J1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K1" t="str">
-        <f>REPT(" ",G1-F1+5)</f>
+        <f>REPT(" ",G1-F1)</f>
         <v xml:space="preserve">                </v>
       </c>
       <c r="L1">
@@ -810,32 +782,31 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F65" si="0">SEARCH(" */",A2,10)</f>
+        <f t="shared" ref="F2:F56" si="0">SEARCH(" */",A2,10)</f>
         <v>19</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G65" si="1">MAX(F$1:F$122)</f>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I2" t="str">
-        <f t="shared" ref="I2:I65" si="2">MID(A2,10,F2-10)</f>
+        <f t="shared" ref="I2:I56" si="1">MID(A2,10,F2-10)</f>
         <v>bGenCtrl2</v>
       </c>
       <c r="J2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K2" t="str">
-        <f t="shared" ref="K2:K65" si="3">REPT(" ",G2-F2+5)</f>
+        <f t="shared" ref="K2:K65" si="2">REPT(" ",G2-F2)</f>
         <v xml:space="preserve">               </v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2" t="str">
-        <f t="shared" ref="M2:M65" si="4">_xlfn.CONCAT(H2:L2)</f>
+        <f t="shared" ref="M2:M56" si="3">_xlfn.CONCAT(H2:L2)</f>
         <v>#define bGenCtrl2_idx               1</v>
       </c>
     </row>
@@ -848,28 +819,27 @@
         <v>22</v>
       </c>
       <c r="G3">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>bRowStartLSB</v>
       </c>
       <c r="J3" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">            </v>
       </c>
       <c r="L3">
         <v>2</v>
       </c>
       <c r="M3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#define bRowStartLSB_idx            2</v>
       </c>
     </row>
@@ -882,28 +852,27 @@
         <v>22</v>
       </c>
       <c r="G4">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>bRowStartMSB</v>
       </c>
       <c r="J4" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">            </v>
       </c>
       <c r="L4">
         <v>3</v>
       </c>
       <c r="M4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#define bRowStartMSB_idx            3</v>
       </c>
     </row>
@@ -916,28 +885,27 @@
         <v>21</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>bRowStopLSB</v>
       </c>
       <c r="J5" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">             </v>
       </c>
       <c r="L5">
         <v>4</v>
       </c>
       <c r="M5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#define bRowStopLSB_idx             4</v>
       </c>
     </row>
@@ -950,28 +918,27 @@
         <v>21</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>bRowStopMSB</v>
       </c>
       <c r="J6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">             </v>
       </c>
       <c r="L6">
         <v>5</v>
       </c>
       <c r="M6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#define bRowStopMSB_idx             5</v>
       </c>
     </row>
@@ -984,28 +951,27 @@
         <v>18</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>bFrmCtrl</v>
       </c>
       <c r="J7" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">                </v>
       </c>
       <c r="L7">
         <v>6</v>
       </c>
       <c r="M7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#define bFrmCtrl_idx                6</v>
       </c>
     </row>
@@ -1018,28 +984,27 @@
         <v>23</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>bClkRowCntLSB</v>
       </c>
       <c r="J8" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">           </v>
       </c>
       <c r="L8">
         <v>7</v>
       </c>
       <c r="M8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#define bClkRowCntLSB_idx           7</v>
       </c>
     </row>
@@ -1052,28 +1017,27 @@
         <v>23</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>bClkRowCntMSB</v>
       </c>
       <c r="J9" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">           </v>
       </c>
       <c r="L9">
         <v>8</v>
       </c>
       <c r="M9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#define bClkRowCntMSB_idx           8</v>
       </c>
     </row>
@@ -1086,28 +1050,27 @@
         <v>21</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>bPixRstHCnt</v>
       </c>
       <c r="J10" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">             </v>
       </c>
       <c r="L10">
         <v>9</v>
       </c>
       <c r="M10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#define bPixRstHCnt_idx             9</v>
       </c>
     </row>
@@ -1120,28 +1083,27 @@
         <v>21</v>
       </c>
       <c r="G11">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H11" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>bPixXferCnt</v>
       </c>
       <c r="J11" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">             </v>
       </c>
       <c r="L11">
         <v>10</v>
       </c>
       <c r="M11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#define bPixXferCnt_idx             10</v>
       </c>
     </row>
@@ -1154,28 +1116,27 @@
         <v>19</v>
       </c>
       <c r="G12">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H12" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>bPixOHCnt</v>
       </c>
       <c r="J12" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">               </v>
       </c>
       <c r="L12">
         <v>11</v>
       </c>
       <c r="M12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#define bPixOHCnt_idx               11</v>
       </c>
     </row>
@@ -1188,28 +1149,27 @@
         <v>20</v>
       </c>
       <c r="G13">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H13" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>bPixOH2Cnt</v>
       </c>
       <c r="J13" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">              </v>
       </c>
       <c r="L13">
         <v>12</v>
       </c>
       <c r="M13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#define bPixOH2Cnt_idx              12</v>
       </c>
     </row>
@@ -1222,28 +1182,27 @@
         <v>22</v>
       </c>
       <c r="G14">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H14" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>bPixRstBECnt</v>
       </c>
       <c r="J14" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">            </v>
       </c>
       <c r="L14">
         <v>13</v>
       </c>
       <c r="M14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#define bPixRstBECnt_idx            13</v>
       </c>
     </row>
@@ -1256,28 +1215,27 @@
         <v>21</v>
       </c>
       <c r="G15">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H15" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>bRODelayCnt</v>
       </c>
       <c r="J15" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">             </v>
       </c>
       <c r="L15">
         <v>14</v>
       </c>
       <c r="M15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#define bRODelayCnt_idx             14</v>
       </c>
     </row>
@@ -1290,28 +1248,27 @@
         <v>20</v>
       </c>
       <c r="G16">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H16" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>bPixBECtrl</v>
       </c>
       <c r="J16" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">              </v>
       </c>
       <c r="L16">
         <v>15</v>
       </c>
       <c r="M16" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#define bPixBECtrl_idx              15</v>
       </c>
     </row>
@@ -1324,28 +1281,27 @@
         <v>27</v>
       </c>
       <c r="G17">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H17" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>bPixClampDelayCnt</v>
       </c>
       <c r="J17" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">       </v>
       </c>
       <c r="L17">
         <v>16</v>
       </c>
       <c r="M17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#define bPixClampDelayCnt_idx       16</v>
       </c>
     </row>
@@ -1358,28 +1314,27 @@
         <v>23</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H18" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>bPixTstNOCCnt</v>
       </c>
       <c r="J18" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">           </v>
       </c>
       <c r="L18">
         <v>17</v>
       </c>
       <c r="M18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>#define bPixTstNOCCnt_idx           17</v>
       </c>
     </row>
@@ -1389,32 +1344,31 @@
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G19">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H19" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I19" t="str">
-        <f t="shared" si="2"/>
-        <v>bIntCntLSB</v>
+        <f t="shared" si="1"/>
+        <v>bFrmHoldOffLSB</v>
       </c>
       <c r="J19" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K19" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">              </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">          </v>
       </c>
       <c r="L19">
         <v>18</v>
       </c>
       <c r="M19" t="str">
-        <f t="shared" si="4"/>
-        <v>#define bIntCntLSB_idx              18</v>
+        <f t="shared" si="3"/>
+        <v>#define bFrmHoldOffLSB_idx          18</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1423,32 +1377,31 @@
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G20">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H20" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I20" t="str">
-        <f t="shared" si="2"/>
-        <v>bIntCnt</v>
+        <f t="shared" si="1"/>
+        <v>bFrmHoldOff</v>
       </c>
       <c r="J20" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K20" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">                 </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">             </v>
       </c>
       <c r="L20">
         <v>19</v>
       </c>
       <c r="M20" t="str">
-        <f t="shared" si="4"/>
-        <v>#define bIntCnt_idx                 19</v>
+        <f t="shared" si="3"/>
+        <v>#define bFrmHoldOff_idx             19</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1457,32 +1410,31 @@
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G21">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H21" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="2"/>
-        <v>bIntCntMSB</v>
+        <f t="shared" si="1"/>
+        <v>bFrmHoldOffMSB</v>
       </c>
       <c r="J21" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K21" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">              </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">          </v>
       </c>
       <c r="L21">
         <v>20</v>
       </c>
       <c r="M21" t="str">
-        <f t="shared" si="4"/>
-        <v>#define bIntCntMSB_idx              20</v>
+        <f t="shared" si="3"/>
+        <v>#define bFrmHoldOffMSB_idx          20</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1491,32 +1443,31 @@
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G22">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H22" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="2"/>
-        <v>bFrmHoldOffLSB</v>
+        <f t="shared" si="1"/>
+        <v>bClkRowDelayCnt</v>
       </c>
       <c r="J22" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K22" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">          </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">         </v>
       </c>
       <c r="L22">
         <v>21</v>
       </c>
       <c r="M22" t="str">
-        <f t="shared" si="4"/>
-        <v>#define bFrmHoldOffLSB_idx          21</v>
+        <f t="shared" si="3"/>
+        <v>#define bClkRowDelayCnt_idx         21</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1525,32 +1476,31 @@
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G23">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H23" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I23" t="str">
-        <f t="shared" si="2"/>
-        <v>bFrmHoldOff</v>
+        <f t="shared" si="1"/>
+        <v>bClkCtrlDSMDiv</v>
       </c>
       <c r="J23" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K23" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">             </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">          </v>
       </c>
       <c r="L23">
         <v>22</v>
       </c>
       <c r="M23" t="str">
-        <f t="shared" si="4"/>
-        <v>#define bFrmHoldOff_idx             22</v>
+        <f t="shared" si="3"/>
+        <v>#define bClkCtrlDSMDiv_idx          22</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1559,32 +1509,31 @@
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G24">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H24" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I24" t="str">
-        <f t="shared" si="2"/>
-        <v>bFrmHoldOffMSB</v>
+        <f t="shared" si="1"/>
+        <v>bDSMDeltaCnt</v>
       </c>
       <c r="J24" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K24" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">          </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">            </v>
       </c>
       <c r="L24">
         <v>23</v>
       </c>
       <c r="M24" t="str">
-        <f t="shared" si="4"/>
-        <v>#define bFrmHoldOffMSB_idx          23</v>
+        <f t="shared" si="3"/>
+        <v>#define bDSMDeltaCnt_idx            23</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1593,32 +1542,31 @@
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G25">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H25" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I25" t="str">
-        <f t="shared" si="2"/>
-        <v>bClkRowDelayCnt</v>
+        <f t="shared" si="1"/>
+        <v>bDSMOHCnt</v>
       </c>
       <c r="J25" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K25" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">         </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">               </v>
       </c>
       <c r="L25">
         <v>24</v>
       </c>
       <c r="M25" t="str">
-        <f t="shared" si="4"/>
-        <v>#define bClkRowDelayCnt_idx         24</v>
+        <f t="shared" si="3"/>
+        <v>#define bDSMOHCnt_idx               24</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1627,32 +1575,31 @@
       </c>
       <c r="F26">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G26">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H26" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I26" t="str">
-        <f t="shared" si="2"/>
-        <v>bClkCtrlDSMDiv</v>
+        <f t="shared" si="1"/>
+        <v>bDSMQRstCnt</v>
       </c>
       <c r="J26" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K26" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">          </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">             </v>
       </c>
       <c r="L26">
         <v>25</v>
       </c>
       <c r="M26" t="str">
-        <f t="shared" si="4"/>
-        <v>#define bClkCtrlDSMDiv_idx          25</v>
+        <f t="shared" si="3"/>
+        <v>#define bDSMQRstCnt_idx             25</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1661,32 +1608,31 @@
       </c>
       <c r="F27">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G27">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H27" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I27" t="str">
-        <f t="shared" si="2"/>
-        <v>bDSMCyclesLSB</v>
+        <f t="shared" si="1"/>
+        <v>bDSMSeedRowsSel</v>
       </c>
       <c r="J27" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K27" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">           </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">         </v>
       </c>
       <c r="L27">
         <v>26</v>
       </c>
       <c r="M27" t="str">
-        <f t="shared" si="4"/>
-        <v>#define bDSMCyclesLSB_idx           26</v>
+        <f t="shared" si="3"/>
+        <v>#define bDSMSeedRowsSel_idx         26</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -1695,32 +1641,31 @@
       </c>
       <c r="F28">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G28">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H28" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="2"/>
-        <v>bDSMCyclesMSB</v>
+        <f t="shared" si="1"/>
+        <v>bColGrpStart</v>
       </c>
       <c r="J28" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K28" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">           </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">            </v>
       </c>
       <c r="L28">
         <v>27</v>
       </c>
       <c r="M28" t="str">
-        <f t="shared" si="4"/>
-        <v>#define bDSMCyclesMSB_idx           27</v>
+        <f t="shared" si="3"/>
+        <v>#define bColGrpStart_idx            27</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -1729,32 +1674,31 @@
       </c>
       <c r="F29">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G29">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H29" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I29" t="str">
-        <f t="shared" si="2"/>
-        <v>bDSMDeltaCnt</v>
+        <f t="shared" si="1"/>
+        <v>bColGrpStop</v>
       </c>
       <c r="J29" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K29" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">            </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">             </v>
       </c>
       <c r="L29">
         <v>28</v>
       </c>
       <c r="M29" t="str">
-        <f t="shared" si="4"/>
-        <v>#define bDSMDeltaCnt_idx            28</v>
+        <f t="shared" si="3"/>
+        <v>#define bColGrpStop_idx             28</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -1763,32 +1707,31 @@
       </c>
       <c r="F30">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G30">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H30" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I30" t="str">
-        <f t="shared" si="2"/>
-        <v>bDSMOHCnt</v>
+        <f t="shared" si="1"/>
+        <v>bTstDig</v>
       </c>
       <c r="J30" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K30" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">               </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="L30">
         <v>29</v>
       </c>
       <c r="M30" t="str">
-        <f t="shared" si="4"/>
-        <v>#define bDSMOHCnt_idx               29</v>
+        <f t="shared" si="3"/>
+        <v>#define bTstDig_idx                 29</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -1797,32 +1740,31 @@
       </c>
       <c r="F31">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G31">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H31" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" si="2"/>
-        <v>bDSMQRstCnt</v>
+        <f t="shared" si="1"/>
+        <v>bTstAddrDig1</v>
       </c>
       <c r="J31" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K31" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">             </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">            </v>
       </c>
       <c r="L31">
         <v>30</v>
       </c>
       <c r="M31" t="str">
-        <f t="shared" si="4"/>
-        <v>#define bDSMQRstCnt_idx             30</v>
+        <f t="shared" si="3"/>
+        <v>#define bTstAddrDig1_idx            30</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -1831,32 +1773,31 @@
       </c>
       <c r="F32">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G32">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H32" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I32" t="str">
-        <f t="shared" si="2"/>
-        <v>bDSMDelayCntLSB</v>
+        <f t="shared" si="1"/>
+        <v>bTstAddrDig2</v>
       </c>
       <c r="J32" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K32" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">         </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">            </v>
       </c>
       <c r="L32">
         <v>31</v>
       </c>
       <c r="M32" t="str">
-        <f t="shared" si="4"/>
-        <v>#define bDSMDelayCntLSB_idx         31</v>
+        <f t="shared" si="3"/>
+        <v>#define bTstAddrDig2_idx            31</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -1865,32 +1806,31 @@
       </c>
       <c r="F33">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G33">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H33" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="2"/>
-        <v>bDSMDelayCntMSB</v>
+        <f t="shared" si="1"/>
+        <v>bADCtrl</v>
       </c>
       <c r="J33" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K33" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">         </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="L33">
         <v>32</v>
       </c>
       <c r="M33" t="str">
-        <f t="shared" si="4"/>
-        <v>#define bDSMDelayCntMSB_idx         32</v>
+        <f t="shared" si="3"/>
+        <v>#define bADCtrl_idx                 32</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -1899,32 +1839,31 @@
       </c>
       <c r="F34">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G34">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H34" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I34" t="str">
-        <f t="shared" si="2"/>
-        <v>bDSMInitDelayCntLSB</v>
+        <f t="shared" si="1"/>
+        <v>bADOSamp</v>
       </c>
       <c r="J34" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K34" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">     </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">                </v>
       </c>
       <c r="L34">
         <v>33</v>
       </c>
       <c r="M34" t="str">
-        <f t="shared" si="4"/>
-        <v>#define bDSMInitDelayCntLSB_idx     33</v>
+        <f t="shared" si="3"/>
+        <v>#define bADOSamp_idx                33</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -1933,32 +1872,31 @@
       </c>
       <c r="F35">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G35">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H35" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I35" t="str">
-        <f t="shared" si="2"/>
-        <v>bDSMInitDelayCntMSB</v>
+        <f t="shared" si="1"/>
+        <v>bADDigOSLSB</v>
       </c>
       <c r="J35" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K35" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">     </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">             </v>
       </c>
       <c r="L35">
         <v>34</v>
       </c>
       <c r="M35" t="str">
-        <f t="shared" si="4"/>
-        <v>#define bDSMInitDelayCntMSB_idx     34</v>
+        <f t="shared" si="3"/>
+        <v>#define bADDigOSLSB_idx             34</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -1967,32 +1905,31 @@
       </c>
       <c r="F36">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G36">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H36" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I36" t="str">
-        <f t="shared" si="2"/>
-        <v>bDSMSeedRowsSel</v>
+        <f t="shared" si="1"/>
+        <v>bADDigOS</v>
       </c>
       <c r="J36" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K36" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">         </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">                </v>
       </c>
       <c r="L36">
         <v>35</v>
       </c>
       <c r="M36" t="str">
-        <f t="shared" si="4"/>
-        <v>#define bDSMSeedRowsSel_idx         35</v>
+        <f t="shared" si="3"/>
+        <v>#define bADDigOS_idx                35</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2001,32 +1938,31 @@
       </c>
       <c r="F37">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G37">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H37" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I37" t="str">
-        <f t="shared" si="2"/>
-        <v>bColGrpStart</v>
+        <f t="shared" si="1"/>
+        <v>bADDigOSMSB</v>
       </c>
       <c r="J37" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K37" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">            </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">             </v>
       </c>
       <c r="L37">
         <v>36</v>
       </c>
       <c r="M37" t="str">
-        <f t="shared" si="4"/>
-        <v>#define bColGrpStart_idx            36</v>
+        <f t="shared" si="3"/>
+        <v>#define bADDigOSMSB_idx             36</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2035,32 +1971,31 @@
       </c>
       <c r="F38">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G38">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H38" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I38" t="str">
-        <f t="shared" si="2"/>
-        <v>bColGrpStop</v>
+        <f t="shared" si="1"/>
+        <v>bADRstCnt</v>
       </c>
       <c r="J38" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K38" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">             </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">               </v>
       </c>
       <c r="L38">
         <v>37</v>
       </c>
       <c r="M38" t="str">
-        <f t="shared" si="4"/>
-        <v>#define bColGrpStop_idx             37</v>
+        <f t="shared" si="3"/>
+        <v>#define bADRstCnt_idx               37</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2069,32 +2004,31 @@
       </c>
       <c r="F39">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G39">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H39" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I39" t="str">
-        <f t="shared" si="2"/>
-        <v>bTstDig</v>
+        <f t="shared" si="1"/>
+        <v>bADCalCtrl</v>
       </c>
       <c r="J39" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K39" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">                 </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">              </v>
       </c>
       <c r="L39">
         <v>38</v>
       </c>
       <c r="M39" t="str">
-        <f t="shared" si="4"/>
-        <v>#define bTstDig_idx                 38</v>
+        <f t="shared" si="3"/>
+        <v>#define bADCalCtrl_idx              38</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2103,32 +2037,31 @@
       </c>
       <c r="F40">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G40">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H40" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I40" t="str">
-        <f t="shared" si="2"/>
-        <v>bTstAddrDig1</v>
+        <f t="shared" si="1"/>
+        <v>bADCalOSampCtrl</v>
       </c>
       <c r="J40" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K40" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">            </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">         </v>
       </c>
       <c r="L40">
         <v>39</v>
       </c>
       <c r="M40" t="str">
-        <f t="shared" si="4"/>
-        <v>#define bTstAddrDig1_idx            39</v>
+        <f t="shared" si="3"/>
+        <v>#define bADCalOSampCtrl_idx         39</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2137,32 +2070,31 @@
       </c>
       <c r="F41">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G41">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H41" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I41" t="str">
-        <f t="shared" si="2"/>
-        <v>bTstAddrDig2</v>
+        <f t="shared" si="1"/>
+        <v>bADCalConstLSB</v>
       </c>
       <c r="J41" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K41" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">            </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">          </v>
       </c>
       <c r="L41">
         <v>40</v>
       </c>
       <c r="M41" t="str">
-        <f t="shared" si="4"/>
-        <v>#define bTstAddrDig2_idx            40</v>
+        <f t="shared" si="3"/>
+        <v>#define bADCalConstLSB_idx          40</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2171,32 +2103,31 @@
       </c>
       <c r="F42">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G42">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H42" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I42" t="str">
-        <f t="shared" si="2"/>
-        <v>bADCtrl</v>
+        <f t="shared" si="1"/>
+        <v>bADCalConstMSB</v>
       </c>
       <c r="J42" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K42" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">                 </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">          </v>
       </c>
       <c r="L42">
         <v>41</v>
       </c>
       <c r="M42" t="str">
-        <f t="shared" si="4"/>
-        <v>#define bADCtrl_idx                 41</v>
+        <f t="shared" si="3"/>
+        <v>#define bADCalConstMSB_idx          41</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2205,32 +2136,31 @@
       </c>
       <c r="F43">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G43">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H43" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I43" t="str">
-        <f t="shared" si="2"/>
-        <v>bADOSamp</v>
+        <f t="shared" si="1"/>
+        <v>bADCal2Const</v>
       </c>
       <c r="J43" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K43" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">                </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">            </v>
       </c>
       <c r="L43">
         <v>42</v>
       </c>
       <c r="M43" t="str">
-        <f t="shared" si="4"/>
-        <v>#define bADOSamp_idx                42</v>
+        <f t="shared" si="3"/>
+        <v>#define bADCal2Const_idx            42</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2239,32 +2169,31 @@
       </c>
       <c r="F44">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G44">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H44" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I44" t="str">
-        <f t="shared" si="2"/>
-        <v>bADDigOSLSB</v>
+        <f t="shared" si="1"/>
+        <v>bADCalClkLSB</v>
       </c>
       <c r="J44" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K44" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">             </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">            </v>
       </c>
       <c r="L44">
         <v>43</v>
       </c>
       <c r="M44" t="str">
-        <f t="shared" si="4"/>
-        <v>#define bADDigOSLSB_idx             43</v>
+        <f t="shared" si="3"/>
+        <v>#define bADCalClkLSB_idx            43</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2273,32 +2202,31 @@
       </c>
       <c r="F45">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G45">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H45" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I45" t="str">
-        <f t="shared" si="2"/>
-        <v>bADDigOS</v>
+        <f t="shared" si="1"/>
+        <v>bADCalClkMSB</v>
       </c>
       <c r="J45" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K45" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">                </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">            </v>
       </c>
       <c r="L45">
         <v>44</v>
       </c>
       <c r="M45" t="str">
-        <f t="shared" si="4"/>
-        <v>#define bADDigOS_idx                44</v>
+        <f t="shared" si="3"/>
+        <v>#define bADCalClkMSB_idx            44</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2307,32 +2235,31 @@
       </c>
       <c r="F46">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G46">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H46" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I46" t="str">
-        <f t="shared" si="2"/>
-        <v>bADDigOSMSB</v>
+        <f t="shared" si="1"/>
+        <v>bADCal2ClkLSB</v>
       </c>
       <c r="J46" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K46" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">             </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">           </v>
       </c>
       <c r="L46">
         <v>45</v>
       </c>
       <c r="M46" t="str">
-        <f t="shared" si="4"/>
-        <v>#define bADDigOSMSB_idx             45</v>
+        <f t="shared" si="3"/>
+        <v>#define bADCal2ClkLSB_idx           45</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2341,32 +2268,31 @@
       </c>
       <c r="F47">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G47">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H47" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I47" t="str">
-        <f t="shared" si="2"/>
-        <v>bADRstCnt</v>
+        <f t="shared" si="1"/>
+        <v>bADCal2ClkMSB</v>
       </c>
       <c r="J47" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K47" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">               </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">           </v>
       </c>
       <c r="L47">
         <v>46</v>
       </c>
       <c r="M47" t="str">
-        <f t="shared" si="4"/>
-        <v>#define bADRstCnt_idx               46</v>
+        <f t="shared" si="3"/>
+        <v>#define bADCal2ClkMSB_idx           46</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2375,32 +2301,31 @@
       </c>
       <c r="F48">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G48">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H48" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I48" t="str">
-        <f t="shared" si="2"/>
-        <v>bADCalCtrl</v>
+        <f t="shared" si="1"/>
+        <v>bADCalDigOSLSB</v>
       </c>
       <c r="J48" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K48" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">              </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">          </v>
       </c>
       <c r="L48">
         <v>47</v>
       </c>
       <c r="M48" t="str">
-        <f t="shared" si="4"/>
-        <v>#define bADCalCtrl_idx              47</v>
+        <f t="shared" si="3"/>
+        <v>#define bADCalDigOSLSB_idx          47</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2409,32 +2334,31 @@
       </c>
       <c r="F49">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G49">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H49" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I49" t="str">
-        <f t="shared" si="2"/>
-        <v>bADCalOSampCtrl</v>
+        <f t="shared" si="1"/>
+        <v>bADCalDigOS</v>
       </c>
       <c r="J49" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K49" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">         </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">             </v>
       </c>
       <c r="L49">
         <v>48</v>
       </c>
       <c r="M49" t="str">
-        <f t="shared" si="4"/>
-        <v>#define bADCalOSampCtrl_idx         48</v>
+        <f t="shared" si="3"/>
+        <v>#define bADCalDigOS_idx             48</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2446,29 +2370,28 @@
         <v>24</v>
       </c>
       <c r="G50">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H50" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I50" t="str">
-        <f t="shared" si="2"/>
-        <v>bADCalConstLSB</v>
+        <f t="shared" si="1"/>
+        <v>bADCalDigOSMSB</v>
       </c>
       <c r="J50" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K50" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">          </v>
       </c>
       <c r="L50">
         <v>49</v>
       </c>
       <c r="M50" t="str">
-        <f t="shared" si="4"/>
-        <v>#define bADCalConstLSB_idx          49</v>
+        <f t="shared" si="3"/>
+        <v>#define bADCalDigOSMSB_idx          49</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2477,32 +2400,31 @@
       </c>
       <c r="F51">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G51">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H51" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I51" t="str">
-        <f t="shared" si="2"/>
-        <v>bADCalConstMSB</v>
+        <f t="shared" si="1"/>
+        <v>bADCalCnt1</v>
       </c>
       <c r="J51" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K51" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">          </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">              </v>
       </c>
       <c r="L51">
         <v>50</v>
       </c>
       <c r="M51" t="str">
-        <f t="shared" si="4"/>
-        <v>#define bADCalConstMSB_idx          50</v>
+        <f t="shared" si="3"/>
+        <v>#define bADCalCnt1_idx              50</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -2511,32 +2433,31 @@
       </c>
       <c r="F52">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G52">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H52" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I52" t="str">
-        <f t="shared" si="2"/>
-        <v>bADCal2Const</v>
+        <f t="shared" si="1"/>
+        <v>bADCalCnt2</v>
       </c>
       <c r="J52" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K52" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">            </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">              </v>
       </c>
       <c r="L52">
         <v>51</v>
       </c>
       <c r="M52" t="str">
-        <f t="shared" si="4"/>
-        <v>#define bADCal2Const_idx            51</v>
+        <f t="shared" si="3"/>
+        <v>#define bADCalCnt2_idx              51</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -2545,32 +2466,31 @@
       </c>
       <c r="F53">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G53">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H53" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I53" t="str">
-        <f t="shared" si="2"/>
-        <v>bADCalClkLSB</v>
+        <f t="shared" si="1"/>
+        <v>bDVPOffsetLSB</v>
       </c>
       <c r="J53" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K53" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">            </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">           </v>
       </c>
       <c r="L53">
         <v>52</v>
       </c>
       <c r="M53" t="str">
-        <f t="shared" si="4"/>
-        <v>#define bADCalClkLSB_idx            52</v>
+        <f t="shared" si="3"/>
+        <v>#define bDVPOffsetLSB_idx           52</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -2579,32 +2499,31 @@
       </c>
       <c r="F54">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G54">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H54" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I54" t="str">
-        <f t="shared" si="2"/>
-        <v>bADCalClkMSB</v>
+        <f t="shared" si="1"/>
+        <v>bDVPOffset</v>
       </c>
       <c r="J54" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K54" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">            </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">              </v>
       </c>
       <c r="L54">
         <v>53</v>
       </c>
       <c r="M54" t="str">
-        <f t="shared" si="4"/>
-        <v>#define bADCalClkMSB_idx            53</v>
+        <f t="shared" si="3"/>
+        <v>#define bDVPOffset_idx              53</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -2616,29 +2535,28 @@
         <v>23</v>
       </c>
       <c r="G55">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H55" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I55" t="str">
-        <f t="shared" si="2"/>
-        <v>bADCal2ClkLSB</v>
+        <f t="shared" si="1"/>
+        <v>bDVPOffsetMSB</v>
       </c>
       <c r="J55" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K55" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">           </v>
       </c>
       <c r="L55">
         <v>54</v>
       </c>
       <c r="M55" t="str">
-        <f t="shared" si="4"/>
-        <v>#define bADCal2ClkLSB_idx           54</v>
+        <f t="shared" si="3"/>
+        <v>#define bDVPOffsetMSB_idx           54</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -2647,32 +2565,31 @@
       </c>
       <c r="F56">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G56">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H56" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I56" t="str">
-        <f t="shared" si="2"/>
-        <v>bADCal2ClkMSB</v>
+        <f t="shared" si="1"/>
+        <v>bResidueHandler</v>
       </c>
       <c r="J56" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K56" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">           </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">         </v>
       </c>
       <c r="L56">
         <v>55</v>
       </c>
       <c r="M56" t="str">
-        <f t="shared" si="4"/>
-        <v>#define bADCal2ClkMSB_idx           55</v>
+        <f t="shared" si="3"/>
+        <v>#define bResidueHandler_idx         55</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -2680,33 +2597,32 @@
         <v>56</v>
       </c>
       <c r="F57">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F57:F113" si="4">SEARCH(" */",A57,10)</f>
         <v>24</v>
       </c>
       <c r="G57">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H57" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I57" t="str">
-        <f t="shared" si="2"/>
-        <v>bADCalDigOSLSB</v>
+        <f t="shared" ref="I57:I113" si="5">MID(A57,10,F57-10)</f>
+        <v>bResDataMaxLSB</v>
       </c>
       <c r="J57" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K57" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">          </v>
       </c>
       <c r="L57">
         <v>56</v>
       </c>
       <c r="M57" t="str">
-        <f t="shared" si="4"/>
-        <v>#define bADCalDigOSLSB_idx          56</v>
+        <f t="shared" ref="M57:M113" si="6">_xlfn.CONCAT(H57:L57)</f>
+        <v>#define bResDataMaxLSB_idx          56</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -2714,33 +2630,32 @@
         <v>57</v>
       </c>
       <c r="F58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="G58">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H58" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I58" t="str">
-        <f t="shared" si="2"/>
-        <v>bADCalDigOS</v>
+        <f t="shared" si="5"/>
+        <v>bResDataMax</v>
       </c>
       <c r="J58" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K58" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">             </v>
       </c>
       <c r="L58">
         <v>57</v>
       </c>
       <c r="M58" t="str">
-        <f t="shared" si="4"/>
-        <v>#define bADCalDigOS_idx             57</v>
+        <f t="shared" si="6"/>
+        <v>#define bResDataMax_idx             57</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -2748,33 +2663,32 @@
         <v>58</v>
       </c>
       <c r="F59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="G59">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H59" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I59" t="str">
-        <f t="shared" si="2"/>
-        <v>bADCalDigOSMSB</v>
+        <f t="shared" si="5"/>
+        <v>bResDataMaxMSB</v>
       </c>
       <c r="J59" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K59" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">          </v>
       </c>
       <c r="L59">
         <v>58</v>
       </c>
       <c r="M59" t="str">
-        <f t="shared" si="4"/>
-        <v>#define bADCalDigOSMSB_idx          58</v>
+        <f t="shared" si="6"/>
+        <v>#define bResDataMaxMSB_idx          58</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -2782,33 +2696,32 @@
         <v>59</v>
       </c>
       <c r="F60">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>22</v>
       </c>
       <c r="G60">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H60" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I60" t="str">
-        <f t="shared" si="2"/>
-        <v>bADCalCnt1</v>
+        <f t="shared" si="5"/>
+        <v>bDataHandler</v>
       </c>
       <c r="J60" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K60" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">              </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">            </v>
       </c>
       <c r="L60">
         <v>59</v>
       </c>
       <c r="M60" t="str">
-        <f t="shared" si="4"/>
-        <v>#define bADCalCnt1_idx              59</v>
+        <f t="shared" si="6"/>
+        <v>#define bDataHandler_idx            59</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -2816,33 +2729,32 @@
         <v>60</v>
       </c>
       <c r="F61">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>18</v>
       </c>
       <c r="G61">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H61" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I61" t="str">
-        <f t="shared" si="2"/>
-        <v>bADCalCnt2</v>
+        <f t="shared" si="5"/>
+        <v>bOutCtrl</v>
       </c>
       <c r="J61" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K61" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">              </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">                </v>
       </c>
       <c r="L61">
         <v>60</v>
       </c>
       <c r="M61" t="str">
-        <f t="shared" si="4"/>
-        <v>#define bADCalCnt2_idx              60</v>
+        <f t="shared" si="6"/>
+        <v>#define bOutCtrl_idx                60</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -2850,33 +2762,32 @@
         <v>61</v>
       </c>
       <c r="F62">
-        <f t="shared" si="0"/>
-        <v>23</v>
+        <f t="shared" si="4"/>
+        <v>17</v>
       </c>
       <c r="G62">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H62" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I62" t="str">
-        <f t="shared" si="2"/>
-        <v>bDVPOffsetLSB</v>
+        <f t="shared" si="5"/>
+        <v>bTxCtrl</v>
       </c>
       <c r="J62" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K62" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">           </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="L62">
         <v>61</v>
       </c>
       <c r="M62" t="str">
-        <f t="shared" si="4"/>
-        <v>#define bDVPOffsetLSB_idx           61</v>
+        <f t="shared" si="6"/>
+        <v>#define bTxCtrl_idx                 61</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -2884,33 +2795,32 @@
         <v>62</v>
       </c>
       <c r="F63">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>19</v>
       </c>
       <c r="G63">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H63" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I63" t="str">
-        <f t="shared" si="2"/>
-        <v>bDVPOffset</v>
+        <f t="shared" si="5"/>
+        <v>bLVDSCtrl</v>
       </c>
       <c r="J63" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K63" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">              </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">               </v>
       </c>
       <c r="L63">
         <v>62</v>
       </c>
       <c r="M63" t="str">
-        <f t="shared" si="4"/>
-        <v>#define bDVPOffset_idx              62</v>
+        <f t="shared" si="6"/>
+        <v>#define bLVDSCtrl_idx               62</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -2918,33 +2828,32 @@
         <v>63</v>
       </c>
       <c r="F64">
-        <f t="shared" si="0"/>
-        <v>23</v>
+        <f t="shared" si="4"/>
+        <v>19</v>
       </c>
       <c r="G64">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H64" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I64" t="str">
-        <f t="shared" si="2"/>
-        <v>bDVPOffsetMSB</v>
+        <f t="shared" si="5"/>
+        <v>bSkewXCLK</v>
       </c>
       <c r="J64" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K64" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">           </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">               </v>
       </c>
       <c r="L64">
         <v>63</v>
       </c>
       <c r="M64" t="str">
-        <f t="shared" si="4"/>
-        <v>#define bDVPOffsetMSB_idx           63</v>
+        <f t="shared" si="6"/>
+        <v>#define bSkewXCLK_idx               63</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -2952,33 +2861,32 @@
         <v>64</v>
       </c>
       <c r="F65">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <f t="shared" si="4"/>
+        <v>19</v>
       </c>
       <c r="G65">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H65" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I65" t="str">
-        <f t="shared" si="2"/>
-        <v>bResidueHandler</v>
+        <f t="shared" si="5"/>
+        <v>bSkewX&lt;1&gt;</v>
       </c>
       <c r="J65" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K65" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">         </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">               </v>
       </c>
       <c r="L65">
         <v>64</v>
       </c>
       <c r="M65" t="str">
-        <f t="shared" si="4"/>
-        <v>#define bResidueHandler_idx         64</v>
+        <f t="shared" si="6"/>
+        <v>#define bSkewX&lt;1&gt;_idx               64</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -2986,33 +2894,32 @@
         <v>65</v>
       </c>
       <c r="F66">
-        <f t="shared" ref="F66:F122" si="5">SEARCH(" */",A66,10)</f>
-        <v>24</v>
+        <f t="shared" si="4"/>
+        <v>19</v>
       </c>
       <c r="G66">
-        <f t="shared" ref="G66:G122" si="6">MAX(F$1:F$122)</f>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H66" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I66" t="str">
-        <f t="shared" ref="I66:I122" si="7">MID(A66,10,F66-10)</f>
-        <v>bResDataMaxLSB</v>
+        <f t="shared" si="5"/>
+        <v>bSkewX&lt;2&gt;</v>
       </c>
       <c r="J66" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K66" t="str">
-        <f t="shared" ref="K66:K122" si="8">REPT(" ",G66-F66+5)</f>
-        <v xml:space="preserve">          </v>
+        <f t="shared" ref="K66:K113" si="7">REPT(" ",G66-F66)</f>
+        <v xml:space="preserve">               </v>
       </c>
       <c r="L66">
         <v>65</v>
       </c>
       <c r="M66" t="str">
-        <f t="shared" ref="M66:M122" si="9">_xlfn.CONCAT(H66:L66)</f>
-        <v>#define bResDataMaxLSB_idx          65</v>
+        <f t="shared" si="6"/>
+        <v>#define bSkewX&lt;2&gt;_idx               65</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -3020,33 +2927,32 @@
         <v>66</v>
       </c>
       <c r="F67">
-        <f t="shared" si="5"/>
-        <v>21</v>
+        <f t="shared" si="4"/>
+        <v>19</v>
       </c>
       <c r="G67">
-        <f t="shared" si="6"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H67" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" si="7"/>
-        <v>bResDataMax</v>
+        <f t="shared" si="5"/>
+        <v>bSkewX&lt;3&gt;</v>
       </c>
       <c r="J67" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K67" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">             </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">               </v>
       </c>
       <c r="L67">
         <v>66</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" si="9"/>
-        <v>#define bResDataMax_idx             66</v>
+        <f t="shared" si="6"/>
+        <v>#define bSkewX&lt;3&gt;_idx               66</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -3054,33 +2960,32 @@
         <v>67</v>
       </c>
       <c r="F68">
-        <f t="shared" si="5"/>
-        <v>24</v>
+        <f t="shared" si="4"/>
+        <v>19</v>
       </c>
       <c r="G68">
-        <f t="shared" si="6"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H68" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I68" t="str">
-        <f t="shared" si="7"/>
-        <v>bResDataMaxMSB</v>
+        <f t="shared" si="5"/>
+        <v>bSkewX&lt;4&gt;</v>
       </c>
       <c r="J68" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K68" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">          </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">               </v>
       </c>
       <c r="L68">
         <v>67</v>
       </c>
       <c r="M68" t="str">
-        <f t="shared" si="9"/>
-        <v>#define bResDataMaxMSB_idx          67</v>
+        <f t="shared" si="6"/>
+        <v>#define bSkewX&lt;4&gt;_idx               67</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -3088,33 +2993,32 @@
         <v>68</v>
       </c>
       <c r="F69">
-        <f t="shared" si="5"/>
-        <v>22</v>
+        <f t="shared" si="4"/>
+        <v>19</v>
       </c>
       <c r="G69">
-        <f t="shared" si="6"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H69" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I69" t="str">
-        <f t="shared" si="7"/>
-        <v>bDataHandler</v>
+        <f t="shared" si="5"/>
+        <v>bSkewX&lt;5&gt;</v>
       </c>
       <c r="J69" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K69" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">            </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">               </v>
       </c>
       <c r="L69">
         <v>68</v>
       </c>
       <c r="M69" t="str">
-        <f t="shared" si="9"/>
-        <v>#define bDataHandler_idx            68</v>
+        <f t="shared" si="6"/>
+        <v>#define bSkewX&lt;5&gt;_idx               68</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -3122,33 +3026,32 @@
         <v>69</v>
       </c>
       <c r="F70">
-        <f t="shared" si="5"/>
-        <v>18</v>
+        <f t="shared" si="4"/>
+        <v>19</v>
       </c>
       <c r="G70">
-        <f t="shared" si="6"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H70" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I70" t="str">
-        <f t="shared" si="7"/>
-        <v>bOutCtrl</v>
+        <f t="shared" si="5"/>
+        <v>bSkewX&lt;6&gt;</v>
       </c>
       <c r="J70" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K70" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">                </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">               </v>
       </c>
       <c r="L70">
         <v>69</v>
       </c>
       <c r="M70" t="str">
-        <f t="shared" si="9"/>
-        <v>#define bOutCtrl_idx                69</v>
+        <f t="shared" si="6"/>
+        <v>#define bSkewX&lt;6&gt;_idx               69</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -3156,33 +3059,32 @@
         <v>70</v>
       </c>
       <c r="F71">
-        <f t="shared" si="5"/>
-        <v>17</v>
+        <f t="shared" si="4"/>
+        <v>19</v>
       </c>
       <c r="G71">
-        <f t="shared" si="6"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H71" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I71" t="str">
-        <f t="shared" si="7"/>
-        <v>bTxCtrl</v>
+        <f t="shared" si="5"/>
+        <v>bSkewX&lt;7&gt;</v>
       </c>
       <c r="J71" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K71" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">                 </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">               </v>
       </c>
       <c r="L71">
         <v>70</v>
       </c>
       <c r="M71" t="str">
-        <f t="shared" si="9"/>
-        <v>#define bTxCtrl_idx                 70</v>
+        <f t="shared" si="6"/>
+        <v>#define bSkewX&lt;7&gt;_idx               70</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -3190,33 +3092,32 @@
         <v>71</v>
       </c>
       <c r="F72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="G72">
-        <f t="shared" si="6"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H72" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I72" t="str">
-        <f t="shared" si="7"/>
-        <v>bLVDSCtrl</v>
+        <f t="shared" si="5"/>
+        <v>bSkewX&lt;8&gt;</v>
       </c>
       <c r="J72" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K72" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">               </v>
       </c>
       <c r="L72">
         <v>71</v>
       </c>
       <c r="M72" t="str">
-        <f t="shared" si="9"/>
-        <v>#define bLVDSCtrl_idx               71</v>
+        <f t="shared" si="6"/>
+        <v>#define bSkewX&lt;8&gt;_idx               71</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -3224,33 +3125,32 @@
         <v>72</v>
       </c>
       <c r="F73">
-        <f t="shared" si="5"/>
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>21</v>
       </c>
       <c r="G73">
-        <f t="shared" si="6"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H73" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I73" t="str">
-        <f t="shared" si="7"/>
-        <v>bSkewXCLK</v>
+        <f t="shared" si="5"/>
+        <v>bClkCoreCnt</v>
       </c>
       <c r="J73" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K73" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">               </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">             </v>
       </c>
       <c r="L73">
         <v>72</v>
       </c>
       <c r="M73" t="str">
-        <f t="shared" si="9"/>
-        <v>#define bSkewXCLK_idx               72</v>
+        <f t="shared" si="6"/>
+        <v>#define bClkCoreCnt_idx             72</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -3258,33 +3158,32 @@
         <v>73</v>
       </c>
       <c r="F74">
-        <f t="shared" si="5"/>
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20</v>
       </c>
       <c r="G74">
-        <f t="shared" si="6"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H74" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I74" t="str">
-        <f t="shared" si="7"/>
-        <v>bSkewX&lt;1&gt;</v>
+        <f t="shared" si="5"/>
+        <v>bClkColCnt</v>
       </c>
       <c r="J74" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K74" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">               </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">              </v>
       </c>
       <c r="L74">
         <v>73</v>
       </c>
       <c r="M74" t="str">
-        <f t="shared" si="9"/>
-        <v>#define bSkewX&lt;1&gt;_idx               73</v>
+        <f t="shared" si="6"/>
+        <v>#define bClkColCnt_idx              73</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -3292,33 +3191,32 @@
         <v>74</v>
       </c>
       <c r="F75">
-        <f t="shared" si="5"/>
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>24</v>
       </c>
       <c r="G75">
-        <f t="shared" si="6"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H75" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I75" t="str">
-        <f t="shared" si="7"/>
-        <v>bSkewX&lt;2&gt;</v>
+        <f t="shared" si="5"/>
+        <v>b3PixBiasMstr1</v>
       </c>
       <c r="J75" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K75" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">               </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">          </v>
       </c>
       <c r="L75">
         <v>74</v>
       </c>
       <c r="M75" t="str">
-        <f t="shared" si="9"/>
-        <v>#define bSkewX&lt;2&gt;_idx               74</v>
+        <f t="shared" si="6"/>
+        <v>#define b3PixBiasMstr1_idx          74</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -3326,33 +3224,32 @@
         <v>75</v>
       </c>
       <c r="F76">
-        <f t="shared" si="5"/>
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>22</v>
       </c>
       <c r="G76">
-        <f t="shared" si="6"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H76" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I76" t="str">
-        <f t="shared" si="7"/>
-        <v>bSkewX&lt;3&gt;</v>
+        <f t="shared" si="5"/>
+        <v>b3PixPDIBias</v>
       </c>
       <c r="J76" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K76" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">               </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">            </v>
       </c>
       <c r="L76">
         <v>75</v>
       </c>
       <c r="M76" t="str">
-        <f t="shared" si="9"/>
-        <v>#define bSkewX&lt;3&gt;_idx               75</v>
+        <f t="shared" si="6"/>
+        <v>#define b3PixPDIBias_idx            75</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -3360,33 +3257,32 @@
         <v>76</v>
       </c>
       <c r="F77">
-        <f t="shared" si="5"/>
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>23</v>
       </c>
       <c r="G77">
-        <f t="shared" si="6"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H77" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I77" t="str">
-        <f t="shared" si="7"/>
-        <v>bSkewX&lt;4&gt;</v>
+        <f t="shared" si="5"/>
+        <v>b3PixCPDIBias</v>
       </c>
       <c r="J77" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K77" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">               </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">           </v>
       </c>
       <c r="L77">
         <v>76</v>
       </c>
       <c r="M77" t="str">
-        <f t="shared" si="9"/>
-        <v>#define bSkewX&lt;4&gt;_idx               76</v>
+        <f t="shared" si="6"/>
+        <v>#define b3PixCPDIBias_idx           76</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -3394,33 +3290,32 @@
         <v>77</v>
       </c>
       <c r="F78">
-        <f t="shared" si="5"/>
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>22</v>
       </c>
       <c r="G78">
-        <f t="shared" si="6"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H78" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I78" t="str">
-        <f t="shared" si="7"/>
-        <v>bSkewX&lt;5&gt;</v>
+        <f t="shared" si="5"/>
+        <v>b3PixCompRef</v>
       </c>
       <c r="J78" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K78" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">               </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">            </v>
       </c>
       <c r="L78">
         <v>77</v>
       </c>
       <c r="M78" t="str">
-        <f t="shared" si="9"/>
-        <v>#define bSkewX&lt;5&gt;_idx               77</v>
+        <f t="shared" si="6"/>
+        <v>#define b3PixCompRef_idx            77</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -3428,33 +3323,32 @@
         <v>78</v>
       </c>
       <c r="F79">
-        <f t="shared" si="5"/>
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>27</v>
       </c>
       <c r="G79">
-        <f t="shared" si="6"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H79" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I79" t="str">
-        <f t="shared" si="7"/>
-        <v>bSkewX&lt;6&gt;</v>
+        <f t="shared" si="5"/>
+        <v>b3PixCompRefBias1</v>
       </c>
       <c r="J79" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K79" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">               </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">       </v>
       </c>
       <c r="L79">
         <v>78</v>
       </c>
       <c r="M79" t="str">
-        <f t="shared" si="9"/>
-        <v>#define bSkewX&lt;6&gt;_idx               78</v>
+        <f t="shared" si="6"/>
+        <v>#define b3PixCompRefBias1_idx       78</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -3462,33 +3356,32 @@
         <v>79</v>
       </c>
       <c r="F80">
-        <f t="shared" si="5"/>
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>27</v>
       </c>
       <c r="G80">
-        <f t="shared" si="6"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H80" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I80" t="str">
-        <f t="shared" si="7"/>
-        <v>bSkewX&lt;7&gt;</v>
+        <f t="shared" si="5"/>
+        <v>b3PixCompRefBias2</v>
       </c>
       <c r="J80" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K80" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">               </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">       </v>
       </c>
       <c r="L80">
         <v>79</v>
       </c>
       <c r="M80" t="str">
-        <f t="shared" si="9"/>
-        <v>#define bSkewX&lt;7&gt;_idx               79</v>
+        <f t="shared" si="6"/>
+        <v>#define b3PixCompRefBias2_idx       79</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -3496,33 +3389,32 @@
         <v>80</v>
       </c>
       <c r="F81">
-        <f t="shared" si="5"/>
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>18</v>
       </c>
       <c r="G81">
-        <f t="shared" si="6"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H81" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I81" t="str">
-        <f t="shared" si="7"/>
-        <v>bSkewX&lt;8&gt;</v>
+        <f t="shared" si="5"/>
+        <v>b3PixQNB</v>
       </c>
       <c r="J81" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K81" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">               </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">                </v>
       </c>
       <c r="L81">
         <v>80</v>
       </c>
       <c r="M81" t="str">
-        <f t="shared" si="9"/>
-        <v>#define bSkewX&lt;8&gt;_idx               80</v>
+        <f t="shared" si="6"/>
+        <v>#define b3PixQNB_idx                80</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -3530,33 +3422,32 @@
         <v>81</v>
       </c>
       <c r="F82">
-        <f t="shared" si="5"/>
-        <v>21</v>
+        <f t="shared" si="4"/>
+        <v>23</v>
       </c>
       <c r="G82">
-        <f t="shared" si="6"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H82" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I82" t="str">
-        <f t="shared" si="7"/>
-        <v>bClkCoreCnt</v>
+        <f t="shared" si="5"/>
+        <v>b3PixQNBBias1</v>
       </c>
       <c r="J82" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K82" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">             </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">           </v>
       </c>
       <c r="L82">
         <v>81</v>
       </c>
       <c r="M82" t="str">
-        <f t="shared" si="9"/>
-        <v>#define bClkCoreCnt_idx             81</v>
+        <f t="shared" si="6"/>
+        <v>#define b3PixQNBBias1_idx           81</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -3564,33 +3455,32 @@
         <v>82</v>
       </c>
       <c r="F83">
-        <f t="shared" si="5"/>
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>23</v>
       </c>
       <c r="G83">
-        <f t="shared" si="6"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H83" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I83" t="str">
-        <f t="shared" si="7"/>
-        <v>bClkColCnt</v>
+        <f t="shared" si="5"/>
+        <v>b3PixQNBBias2</v>
       </c>
       <c r="J83" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K83" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">              </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">           </v>
       </c>
       <c r="L83">
         <v>82</v>
       </c>
       <c r="M83" t="str">
-        <f t="shared" si="9"/>
-        <v>#define bClkColCnt_idx              82</v>
+        <f t="shared" si="6"/>
+        <v>#define b3PixQNBBias2_idx           82</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
@@ -3598,33 +3488,32 @@
         <v>83</v>
       </c>
       <c r="F84">
-        <f t="shared" si="5"/>
-        <v>24</v>
+        <f t="shared" si="4"/>
+        <v>22</v>
       </c>
       <c r="G84">
-        <f t="shared" si="6"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H84" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I84" t="str">
-        <f t="shared" si="7"/>
-        <v>b3PixBiasMstr1</v>
+        <f t="shared" si="5"/>
+        <v>b3PixAnaCtrl</v>
       </c>
       <c r="J84" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K84" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">          </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">            </v>
       </c>
       <c r="L84">
         <v>83</v>
       </c>
       <c r="M84" t="str">
-        <f t="shared" si="9"/>
-        <v>#define b3PixBiasMstr1_idx          83</v>
+        <f t="shared" si="6"/>
+        <v>#define b3PixAnaCtrl_idx            83</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -3632,33 +3521,32 @@
         <v>84</v>
       </c>
       <c r="F85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="G85">
-        <f t="shared" si="6"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H85" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I85" t="str">
-        <f t="shared" si="7"/>
-        <v>b3PixPDIBias</v>
+        <f t="shared" si="5"/>
+        <v>b3RstLimRamp</v>
       </c>
       <c r="J85" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K85" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">            </v>
       </c>
       <c r="L85">
         <v>84</v>
       </c>
       <c r="M85" t="str">
-        <f t="shared" si="9"/>
-        <v>#define b3PixPDIBias_idx            84</v>
+        <f t="shared" si="6"/>
+        <v>#define b3RstLimRamp_idx            84</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -3666,33 +3554,32 @@
         <v>85</v>
       </c>
       <c r="F86">
-        <f t="shared" si="5"/>
-        <v>23</v>
+        <f t="shared" si="4"/>
+        <v>21</v>
       </c>
       <c r="G86">
-        <f t="shared" si="6"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H86" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I86" t="str">
-        <f t="shared" si="7"/>
-        <v>b3PixCPDIBias</v>
+        <f t="shared" si="5"/>
+        <v>b3PixRstLim</v>
       </c>
       <c r="J86" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K86" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">           </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">             </v>
       </c>
       <c r="L86">
         <v>85</v>
       </c>
       <c r="M86" t="str">
-        <f t="shared" si="9"/>
-        <v>#define b3PixCPDIBias_idx           85</v>
+        <f t="shared" si="6"/>
+        <v>#define b3PixRstLim_idx             85</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -3700,33 +3587,32 @@
         <v>86</v>
       </c>
       <c r="F87">
-        <f t="shared" si="5"/>
-        <v>22</v>
+        <f t="shared" si="4"/>
+        <v>20</v>
       </c>
       <c r="G87">
-        <f t="shared" si="6"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H87" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I87" t="str">
-        <f t="shared" si="7"/>
-        <v>b3PixCompRef</v>
+        <f t="shared" si="5"/>
+        <v>b3PixAnaEn</v>
       </c>
       <c r="J87" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K87" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">            </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">              </v>
       </c>
       <c r="L87">
         <v>86</v>
       </c>
       <c r="M87" t="str">
-        <f t="shared" si="9"/>
-        <v>#define b3PixCompRef_idx            86</v>
+        <f t="shared" si="6"/>
+        <v>#define b3PixAnaEn_idx              86</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -3734,33 +3620,32 @@
         <v>87</v>
       </c>
       <c r="F88">
-        <f t="shared" si="5"/>
-        <v>27</v>
+        <f t="shared" si="4"/>
+        <v>18</v>
       </c>
       <c r="G88">
-        <f t="shared" si="6"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H88" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I88" t="str">
-        <f t="shared" si="7"/>
-        <v>b3PixCompRefBias1</v>
+        <f t="shared" si="5"/>
+        <v>b3TstAna</v>
       </c>
       <c r="J88" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K88" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">       </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">                </v>
       </c>
       <c r="L88">
         <v>87</v>
       </c>
       <c r="M88" t="str">
-        <f t="shared" si="9"/>
-        <v>#define b3PixCompRefBias1_idx       87</v>
+        <f t="shared" si="6"/>
+        <v>#define b3TstAna_idx                87</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -3768,33 +3653,32 @@
         <v>88</v>
       </c>
       <c r="F89">
-        <f t="shared" si="5"/>
-        <v>27</v>
+        <f t="shared" si="4"/>
+        <v>16</v>
       </c>
       <c r="G89">
-        <f t="shared" si="6"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H89" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I89" t="str">
-        <f t="shared" si="7"/>
-        <v>b3PixCompRefBias2</v>
+        <f t="shared" si="5"/>
+        <v>b3TR2I</v>
       </c>
       <c r="J89" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K89" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">       </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">                  </v>
       </c>
       <c r="L89">
         <v>88</v>
       </c>
       <c r="M89" t="str">
-        <f t="shared" si="9"/>
-        <v>#define b3PixCompRefBias2_idx       88</v>
+        <f t="shared" si="6"/>
+        <v>#define b3TR2I_idx                  88</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -3802,33 +3686,32 @@
         <v>89</v>
       </c>
       <c r="F90">
-        <f t="shared" si="5"/>
-        <v>18</v>
+        <f t="shared" si="4"/>
+        <v>24</v>
       </c>
       <c r="G90">
-        <f t="shared" si="6"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H90" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I90" t="str">
-        <f t="shared" si="7"/>
-        <v>b3PixQNB</v>
+        <f t="shared" si="5"/>
+        <v>b3PixBiasMstr2</v>
       </c>
       <c r="J90" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K90" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">                </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">          </v>
       </c>
       <c r="L90">
         <v>89</v>
       </c>
       <c r="M90" t="str">
-        <f t="shared" si="9"/>
-        <v>#define b3PixQNB_idx                89</v>
+        <f t="shared" si="6"/>
+        <v>#define b3PixBiasMstr2_idx          89</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -3836,33 +3719,32 @@
         <v>90</v>
       </c>
       <c r="F91">
-        <f t="shared" si="5"/>
-        <v>23</v>
+        <f t="shared" si="4"/>
+        <v>20</v>
       </c>
       <c r="G91">
-        <f t="shared" si="6"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H91" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I91" t="str">
-        <f t="shared" si="7"/>
-        <v>b3PixQNBBias1</v>
+        <f t="shared" si="5"/>
+        <v>b3PixClamp</v>
       </c>
       <c r="J91" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K91" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">           </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">              </v>
       </c>
       <c r="L91">
         <v>90</v>
       </c>
       <c r="M91" t="str">
-        <f t="shared" si="9"/>
-        <v>#define b3PixQNBBias1_idx           90</v>
+        <f t="shared" si="6"/>
+        <v>#define b3PixClamp_idx              90</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -3870,33 +3752,32 @@
         <v>91</v>
       </c>
       <c r="F92">
-        <f t="shared" si="5"/>
-        <v>23</v>
+        <f t="shared" si="4"/>
+        <v>24</v>
       </c>
       <c r="G92">
-        <f t="shared" si="6"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H92" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I92" t="str">
-        <f t="shared" si="7"/>
-        <v>b3PixQNBBias2</v>
+        <f t="shared" si="5"/>
+        <v>b3PixClampCtrl</v>
       </c>
       <c r="J92" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K92" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">           </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">          </v>
       </c>
       <c r="L92">
         <v>91</v>
       </c>
       <c r="M92" t="str">
-        <f t="shared" si="9"/>
-        <v>#define b3PixQNBBias2_idx           91</v>
+        <f t="shared" si="6"/>
+        <v>#define b3PixClampCtrl_idx          91</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -3904,33 +3785,32 @@
         <v>92</v>
       </c>
       <c r="F93">
-        <f t="shared" si="5"/>
-        <v>22</v>
+        <f t="shared" si="4"/>
+        <v>27</v>
       </c>
       <c r="G93">
-        <f t="shared" si="6"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H93" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I93" t="str">
-        <f t="shared" si="7"/>
-        <v>b3PixAnaCtrl</v>
+        <f t="shared" si="5"/>
+        <v>b3BISTRmpCtrl_3p3</v>
       </c>
       <c r="J93" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K93" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">            </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">       </v>
       </c>
       <c r="L93">
         <v>92</v>
       </c>
       <c r="M93" t="str">
-        <f t="shared" si="9"/>
-        <v>#define b3PixAnaCtrl_idx            92</v>
+        <f t="shared" si="6"/>
+        <v>#define b3BISTRmpCtrl_3p3_idx       92</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -3938,33 +3818,32 @@
         <v>93</v>
       </c>
       <c r="F94">
-        <f t="shared" si="5"/>
-        <v>22</v>
+        <f t="shared" si="4"/>
+        <v>21</v>
       </c>
       <c r="G94">
-        <f t="shared" si="6"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H94" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I94" t="str">
-        <f t="shared" si="7"/>
-        <v>b3RstLimRamp</v>
+        <f t="shared" si="5"/>
+        <v>b3BISTSlope</v>
       </c>
       <c r="J94" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K94" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">            </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">             </v>
       </c>
       <c r="L94">
         <v>93</v>
       </c>
       <c r="M94" t="str">
-        <f t="shared" si="9"/>
-        <v>#define b3RstLimRamp_idx            93</v>
+        <f t="shared" si="6"/>
+        <v>#define b3BISTSlope_idx             93</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -3972,33 +3851,32 @@
         <v>94</v>
       </c>
       <c r="F95">
-        <f t="shared" si="5"/>
-        <v>21</v>
+        <f t="shared" si="4"/>
+        <v>22</v>
       </c>
       <c r="G95">
-        <f t="shared" si="6"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H95" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I95" t="str">
-        <f t="shared" si="7"/>
-        <v>b3PixRstLim</v>
+        <f t="shared" si="5"/>
+        <v>b3BISTOffset</v>
       </c>
       <c r="J95" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K95" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">             </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">            </v>
       </c>
       <c r="L95">
         <v>94</v>
       </c>
       <c r="M95" t="str">
-        <f t="shared" si="9"/>
-        <v>#define b3PixRstLim_idx             94</v>
+        <f t="shared" si="6"/>
+        <v>#define b3BISTOffset_idx            94</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -4006,33 +3884,32 @@
         <v>95</v>
       </c>
       <c r="F96">
-        <f t="shared" si="5"/>
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>23</v>
       </c>
       <c r="G96">
-        <f t="shared" si="6"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H96" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I96" t="str">
-        <f t="shared" si="7"/>
-        <v>b3PixAnaEn</v>
+        <f t="shared" si="5"/>
+        <v>b3BISTRmpBias</v>
       </c>
       <c r="J96" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K96" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">              </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">           </v>
       </c>
       <c r="L96">
         <v>95</v>
       </c>
       <c r="M96" t="str">
-        <f t="shared" si="9"/>
-        <v>#define b3PixAnaEn_idx              95</v>
+        <f t="shared" si="6"/>
+        <v>#define b3BISTRmpBias_idx           95</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -4040,33 +3917,32 @@
         <v>96</v>
       </c>
       <c r="F97">
-        <f t="shared" si="5"/>
-        <v>18</v>
+        <f t="shared" si="4"/>
+        <v>19</v>
       </c>
       <c r="G97">
-        <f t="shared" si="6"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H97" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I97" t="str">
-        <f t="shared" si="7"/>
-        <v>b3TstAna</v>
+        <f t="shared" si="5"/>
+        <v>b3ColBias</v>
       </c>
       <c r="J97" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K97" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">                </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">               </v>
       </c>
       <c r="L97">
         <v>96</v>
       </c>
       <c r="M97" t="str">
-        <f t="shared" si="9"/>
-        <v>#define b3TstAna_idx                96</v>
+        <f t="shared" si="6"/>
+        <v>#define b3ColBias_idx               96</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -4074,33 +3950,32 @@
         <v>97</v>
       </c>
       <c r="F98">
-        <f t="shared" si="5"/>
-        <v>16</v>
+        <f t="shared" si="4"/>
+        <v>19</v>
       </c>
       <c r="G98">
-        <f t="shared" si="6"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H98" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I98" t="str">
-        <f t="shared" si="7"/>
-        <v>b3TR2I</v>
+        <f t="shared" si="5"/>
+        <v>b3ColCtrl</v>
       </c>
       <c r="J98" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K98" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">                  </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">               </v>
       </c>
       <c r="L98">
         <v>97</v>
       </c>
       <c r="M98" t="str">
-        <f t="shared" si="9"/>
-        <v>#define b3TR2I_idx                  97</v>
+        <f t="shared" si="6"/>
+        <v>#define b3ColCtrl_idx               97</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -4108,33 +3983,32 @@
         <v>98</v>
       </c>
       <c r="F99">
-        <f t="shared" si="5"/>
-        <v>24</v>
+        <f t="shared" si="4"/>
+        <v>21</v>
       </c>
       <c r="G99">
-        <f t="shared" si="6"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H99" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I99" t="str">
-        <f t="shared" si="7"/>
-        <v>b3PixBiasMstr2</v>
+        <f t="shared" si="5"/>
+        <v>b3ColDRBias</v>
       </c>
       <c r="J99" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K99" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">          </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">             </v>
       </c>
       <c r="L99">
         <v>98</v>
       </c>
       <c r="M99" t="str">
-        <f t="shared" si="9"/>
-        <v>#define b3PixBiasMstr2_idx          98</v>
+        <f t="shared" si="6"/>
+        <v>#define b3ColDRBias_idx             98</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -4142,33 +4016,32 @@
         <v>99</v>
       </c>
       <c r="F100">
-        <f t="shared" si="5"/>
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>18</v>
       </c>
       <c r="G100">
-        <f t="shared" si="6"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H100" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I100" t="str">
-        <f t="shared" si="7"/>
-        <v>b3PixClamp</v>
+        <f t="shared" si="5"/>
+        <v>b3ADCtrl</v>
       </c>
       <c r="J100" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K100" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">              </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">                </v>
       </c>
       <c r="L100">
         <v>99</v>
       </c>
       <c r="M100" t="str">
-        <f t="shared" si="9"/>
-        <v>#define b3PixClamp_idx              99</v>
+        <f t="shared" si="6"/>
+        <v>#define b3ADCtrl_idx                99</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -4176,33 +4049,32 @@
         <v>100</v>
       </c>
       <c r="F101">
-        <f t="shared" si="5"/>
-        <v>24</v>
+        <f t="shared" si="4"/>
+        <v>22</v>
       </c>
       <c r="G101">
-        <f t="shared" si="6"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H101" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I101" t="str">
-        <f t="shared" si="7"/>
-        <v>b3PixClampCtrl</v>
+        <f t="shared" si="5"/>
+        <v>b3ADBiasMstr</v>
       </c>
       <c r="J101" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K101" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">          </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">            </v>
       </c>
       <c r="L101">
         <v>100</v>
       </c>
       <c r="M101" t="str">
-        <f t="shared" si="9"/>
-        <v>#define b3PixClampCtrl_idx          100</v>
+        <f t="shared" si="6"/>
+        <v>#define b3ADBiasMstr_idx            100</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
@@ -4210,33 +4082,32 @@
         <v>101</v>
       </c>
       <c r="F102">
-        <f t="shared" si="5"/>
-        <v>27</v>
+        <f t="shared" si="4"/>
+        <v>21</v>
       </c>
       <c r="G102">
-        <f t="shared" si="6"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H102" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I102" t="str">
-        <f t="shared" si="7"/>
-        <v>b3BISTRmpCtrl_3p3</v>
+        <f t="shared" si="5"/>
+        <v>b3ADBiasBuf</v>
       </c>
       <c r="J102" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K102" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">       </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">             </v>
       </c>
       <c r="L102">
         <v>101</v>
       </c>
       <c r="M102" t="str">
-        <f t="shared" si="9"/>
-        <v>#define b3BISTRmpCtrl_3p3_idx       101</v>
+        <f t="shared" si="6"/>
+        <v>#define b3ADBiasBuf_idx             101</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
@@ -4244,33 +4115,32 @@
         <v>102</v>
       </c>
       <c r="F103">
-        <f t="shared" si="5"/>
-        <v>21</v>
+        <f t="shared" si="4"/>
+        <v>22</v>
       </c>
       <c r="G103">
-        <f t="shared" si="6"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H103" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I103" t="str">
-        <f t="shared" si="7"/>
-        <v>b3BISTSlope</v>
+        <f t="shared" si="5"/>
+        <v>b3ADBiasComp</v>
       </c>
       <c r="J103" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K103" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">             </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">            </v>
       </c>
       <c r="L103">
         <v>102</v>
       </c>
       <c r="M103" t="str">
-        <f t="shared" si="9"/>
-        <v>#define b3BISTSlope_idx             102</v>
+        <f t="shared" si="6"/>
+        <v>#define b3ADBiasComp_idx            102</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
@@ -4278,33 +4148,32 @@
         <v>103</v>
       </c>
       <c r="F104">
-        <f t="shared" si="5"/>
-        <v>22</v>
+        <f t="shared" si="4"/>
+        <v>18</v>
       </c>
       <c r="G104">
-        <f t="shared" si="6"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H104" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I104" t="str">
-        <f t="shared" si="7"/>
-        <v>b3BISTOffset</v>
+        <f t="shared" si="5"/>
+        <v>b3ADRamp</v>
       </c>
       <c r="J104" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K104" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">            </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">                </v>
       </c>
       <c r="L104">
         <v>103</v>
       </c>
       <c r="M104" t="str">
-        <f t="shared" si="9"/>
-        <v>#define b3BISTOffset_idx            103</v>
+        <f t="shared" si="6"/>
+        <v>#define b3ADRamp_idx                103</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -4312,33 +4181,32 @@
         <v>104</v>
       </c>
       <c r="F105">
-        <f t="shared" si="5"/>
-        <v>23</v>
+        <f t="shared" si="4"/>
+        <v>22</v>
       </c>
       <c r="G105">
-        <f t="shared" si="6"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H105" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I105" t="str">
-        <f t="shared" si="7"/>
-        <v>b3BISTRmpBias</v>
+        <f t="shared" si="5"/>
+        <v>b3ADRampTrim</v>
       </c>
       <c r="J105" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K105" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">           </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">            </v>
       </c>
       <c r="L105">
         <v>104</v>
       </c>
       <c r="M105" t="str">
-        <f t="shared" si="9"/>
-        <v>#define b3BISTRmpBias_idx           104</v>
+        <f t="shared" si="6"/>
+        <v>#define b3ADRampTrim_idx            104</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
@@ -4346,33 +4214,32 @@
         <v>105</v>
       </c>
       <c r="F106">
-        <f t="shared" si="5"/>
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>25</v>
       </c>
       <c r="G106">
-        <f t="shared" si="6"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H106" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I106" t="str">
-        <f t="shared" si="7"/>
-        <v>b3ColBias</v>
+        <f t="shared" si="5"/>
+        <v>b3ADBiasRampBuf</v>
       </c>
       <c r="J106" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K106" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">               </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">         </v>
       </c>
       <c r="L106">
         <v>105</v>
       </c>
       <c r="M106" t="str">
-        <f t="shared" si="9"/>
-        <v>#define b3ColBias_idx               105</v>
+        <f t="shared" si="6"/>
+        <v>#define b3ADBiasRampBuf_idx         105</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
@@ -4380,33 +4247,32 @@
         <v>106</v>
       </c>
       <c r="F107">
-        <f t="shared" si="5"/>
-        <v>19</v>
+        <f t="shared" si="4"/>
+        <v>20</v>
       </c>
       <c r="G107">
-        <f t="shared" si="6"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H107" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I107" t="str">
-        <f t="shared" si="7"/>
-        <v>b3ColCtrl</v>
+        <f t="shared" si="5"/>
+        <v>b3ADRefLow</v>
       </c>
       <c r="J107" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K107" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">               </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">              </v>
       </c>
       <c r="L107">
         <v>106</v>
       </c>
       <c r="M107" t="str">
-        <f t="shared" si="9"/>
-        <v>#define b3ColCtrl_idx               106</v>
+        <f t="shared" si="6"/>
+        <v>#define b3ADRefLow_idx              106</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
@@ -4414,33 +4280,32 @@
         <v>107</v>
       </c>
       <c r="F108">
-        <f t="shared" si="5"/>
-        <v>21</v>
+        <f t="shared" si="4"/>
+        <v>23</v>
       </c>
       <c r="G108">
-        <f t="shared" si="6"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H108" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I108" t="str">
-        <f t="shared" si="7"/>
-        <v>b3ColDRBias</v>
+        <f t="shared" si="5"/>
+        <v>b3ADRmpI1Ctrl</v>
       </c>
       <c r="J108" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K108" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">             </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">           </v>
       </c>
       <c r="L108">
         <v>107</v>
       </c>
       <c r="M108" t="str">
-        <f t="shared" si="9"/>
-        <v>#define b3ColDRBias_idx             107</v>
+        <f t="shared" si="6"/>
+        <v>#define b3ADRmpI1Ctrl_idx           107</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
@@ -4448,33 +4313,32 @@
         <v>108</v>
       </c>
       <c r="F109">
-        <f t="shared" si="5"/>
-        <v>18</v>
+        <f t="shared" si="4"/>
+        <v>25</v>
       </c>
       <c r="G109">
-        <f t="shared" si="6"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H109" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I109" t="str">
-        <f t="shared" si="7"/>
-        <v>b3ADCtrl</v>
+        <f t="shared" si="5"/>
+        <v>b3ADBiasRmpI1DR</v>
       </c>
       <c r="J109" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K109" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">                </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">         </v>
       </c>
       <c r="L109">
         <v>108</v>
       </c>
       <c r="M109" t="str">
-        <f t="shared" si="9"/>
-        <v>#define b3ADCtrl_idx                108</v>
+        <f t="shared" si="6"/>
+        <v>#define b3ADBiasRmpI1DR_idx         108</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
@@ -4482,33 +4346,32 @@
         <v>109</v>
       </c>
       <c r="F110">
-        <f t="shared" si="5"/>
-        <v>22</v>
+        <f t="shared" si="4"/>
+        <v>24</v>
       </c>
       <c r="G110">
-        <f t="shared" si="6"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H110" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I110" t="str">
-        <f t="shared" si="7"/>
-        <v>b3ADBiasMstr</v>
+        <f t="shared" si="5"/>
+        <v>b3LVDSBiasMstr</v>
       </c>
       <c r="J110" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K110" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">            </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">          </v>
       </c>
       <c r="L110">
         <v>109</v>
       </c>
       <c r="M110" t="str">
-        <f t="shared" si="9"/>
-        <v>#define b3ADBiasMstr_idx            109</v>
+        <f t="shared" si="6"/>
+        <v>#define b3LVDSBiasMstr_idx          109</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -4516,33 +4379,32 @@
         <v>110</v>
       </c>
       <c r="F111">
-        <f t="shared" si="5"/>
-        <v>21</v>
+        <f t="shared" si="4"/>
+        <v>20</v>
       </c>
       <c r="G111">
-        <f t="shared" si="6"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H111" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I111" t="str">
-        <f t="shared" si="7"/>
-        <v>b3ADBiasBuf</v>
+        <f t="shared" si="5"/>
+        <v>b3LVDSBias</v>
       </c>
       <c r="J111" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K111" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">             </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">              </v>
       </c>
       <c r="L111">
         <v>110</v>
       </c>
       <c r="M111" t="str">
-        <f t="shared" si="9"/>
-        <v>#define b3ADBiasBuf_idx             110</v>
+        <f t="shared" si="6"/>
+        <v>#define b3LVDSBias_idx              110</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -4550,33 +4412,32 @@
         <v>111</v>
       </c>
       <c r="F112">
-        <f t="shared" si="5"/>
-        <v>22</v>
+        <f t="shared" si="4"/>
+        <v>23</v>
       </c>
       <c r="G112">
-        <f t="shared" si="6"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H112" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I112" t="str">
-        <f t="shared" si="7"/>
-        <v>b3ADBiasComp</v>
+        <f t="shared" si="5"/>
+        <v>b3LVDSBiasRec</v>
       </c>
       <c r="J112" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K112" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">            </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">           </v>
       </c>
       <c r="L112">
         <v>111</v>
       </c>
       <c r="M112" t="str">
-        <f t="shared" si="9"/>
-        <v>#define b3ADBiasComp_idx            111</v>
+        <f t="shared" si="6"/>
+        <v>#define b3LVDSBiasRec_idx           111</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -4584,339 +4445,32 @@
         <v>112</v>
       </c>
       <c r="F113">
-        <f t="shared" si="5"/>
-        <v>18</v>
+        <f t="shared" si="4"/>
+        <v>22</v>
       </c>
       <c r="G113">
-        <f t="shared" si="6"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H113" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I113" t="str">
-        <f t="shared" si="7"/>
-        <v>b3ADRamp</v>
+        <f t="shared" si="5"/>
+        <v>b3TstAddrAna</v>
       </c>
       <c r="J113" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K113" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">                </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">            </v>
       </c>
       <c r="L113">
         <v>112</v>
       </c>
       <c r="M113" t="str">
-        <f t="shared" si="9"/>
-        <v>#define b3ADRamp_idx                112</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>113</v>
-      </c>
-      <c r="F114">
-        <f t="shared" si="5"/>
-        <v>22</v>
-      </c>
-      <c r="G114">
-        <f t="shared" si="6"/>
-        <v>29</v>
-      </c>
-      <c r="H114" t="s">
-        <v>122</v>
-      </c>
-      <c r="I114" t="str">
-        <f t="shared" si="7"/>
-        <v>b3ADRampTrim</v>
-      </c>
-      <c r="J114" t="s">
-        <v>123</v>
-      </c>
-      <c r="K114" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">            </v>
-      </c>
-      <c r="L114">
-        <v>113</v>
-      </c>
-      <c r="M114" t="str">
-        <f t="shared" si="9"/>
-        <v>#define b3ADRampTrim_idx            113</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>114</v>
-      </c>
-      <c r="F115">
-        <f t="shared" si="5"/>
-        <v>25</v>
-      </c>
-      <c r="G115">
-        <f t="shared" si="6"/>
-        <v>29</v>
-      </c>
-      <c r="H115" t="s">
-        <v>122</v>
-      </c>
-      <c r="I115" t="str">
-        <f t="shared" si="7"/>
-        <v>b3ADBiasRampBuf</v>
-      </c>
-      <c r="J115" t="s">
-        <v>123</v>
-      </c>
-      <c r="K115" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">         </v>
-      </c>
-      <c r="L115">
-        <v>114</v>
-      </c>
-      <c r="M115" t="str">
-        <f t="shared" si="9"/>
-        <v>#define b3ADBiasRampBuf_idx         114</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>115</v>
-      </c>
-      <c r="F116">
-        <f t="shared" si="5"/>
-        <v>20</v>
-      </c>
-      <c r="G116">
-        <f t="shared" si="6"/>
-        <v>29</v>
-      </c>
-      <c r="H116" t="s">
-        <v>122</v>
-      </c>
-      <c r="I116" t="str">
-        <f t="shared" si="7"/>
-        <v>b3ADRefLow</v>
-      </c>
-      <c r="J116" t="s">
-        <v>123</v>
-      </c>
-      <c r="K116" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">              </v>
-      </c>
-      <c r="L116">
-        <v>115</v>
-      </c>
-      <c r="M116" t="str">
-        <f t="shared" si="9"/>
-        <v>#define b3ADRefLow_idx              115</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>116</v>
-      </c>
-      <c r="F117">
-        <f t="shared" si="5"/>
-        <v>23</v>
-      </c>
-      <c r="G117">
-        <f t="shared" si="6"/>
-        <v>29</v>
-      </c>
-      <c r="H117" t="s">
-        <v>122</v>
-      </c>
-      <c r="I117" t="str">
-        <f t="shared" si="7"/>
-        <v>b3ADRmpI1Ctrl</v>
-      </c>
-      <c r="J117" t="s">
-        <v>123</v>
-      </c>
-      <c r="K117" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">           </v>
-      </c>
-      <c r="L117">
-        <v>116</v>
-      </c>
-      <c r="M117" t="str">
-        <f t="shared" si="9"/>
-        <v>#define b3ADRmpI1Ctrl_idx           116</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>117</v>
-      </c>
-      <c r="F118">
-        <f t="shared" si="5"/>
-        <v>25</v>
-      </c>
-      <c r="G118">
-        <f t="shared" si="6"/>
-        <v>29</v>
-      </c>
-      <c r="H118" t="s">
-        <v>122</v>
-      </c>
-      <c r="I118" t="str">
-        <f t="shared" si="7"/>
-        <v>b3ADBiasRmpI1DR</v>
-      </c>
-      <c r="J118" t="s">
-        <v>123</v>
-      </c>
-      <c r="K118" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">         </v>
-      </c>
-      <c r="L118">
-        <v>117</v>
-      </c>
-      <c r="M118" t="str">
-        <f t="shared" si="9"/>
-        <v>#define b3ADBiasRmpI1DR_idx         117</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>118</v>
-      </c>
-      <c r="F119">
-        <f t="shared" si="5"/>
-        <v>24</v>
-      </c>
-      <c r="G119">
-        <f t="shared" si="6"/>
-        <v>29</v>
-      </c>
-      <c r="H119" t="s">
-        <v>122</v>
-      </c>
-      <c r="I119" t="str">
-        <f t="shared" si="7"/>
-        <v>b3LVDSBiasMstr</v>
-      </c>
-      <c r="J119" t="s">
-        <v>123</v>
-      </c>
-      <c r="K119" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">          </v>
-      </c>
-      <c r="L119">
-        <v>118</v>
-      </c>
-      <c r="M119" t="str">
-        <f t="shared" si="9"/>
-        <v>#define b3LVDSBiasMstr_idx          118</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>119</v>
-      </c>
-      <c r="F120">
-        <f t="shared" si="5"/>
-        <v>20</v>
-      </c>
-      <c r="G120">
-        <f t="shared" si="6"/>
-        <v>29</v>
-      </c>
-      <c r="H120" t="s">
-        <v>122</v>
-      </c>
-      <c r="I120" t="str">
-        <f t="shared" si="7"/>
-        <v>b3LVDSBias</v>
-      </c>
-      <c r="J120" t="s">
-        <v>123</v>
-      </c>
-      <c r="K120" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">              </v>
-      </c>
-      <c r="L120">
-        <v>119</v>
-      </c>
-      <c r="M120" t="str">
-        <f t="shared" si="9"/>
-        <v>#define b3LVDSBias_idx              119</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>120</v>
-      </c>
-      <c r="F121">
-        <f t="shared" si="5"/>
-        <v>23</v>
-      </c>
-      <c r="G121">
-        <f t="shared" si="6"/>
-        <v>29</v>
-      </c>
-      <c r="H121" t="s">
-        <v>122</v>
-      </c>
-      <c r="I121" t="str">
-        <f t="shared" si="7"/>
-        <v>b3LVDSBiasRec</v>
-      </c>
-      <c r="J121" t="s">
-        <v>123</v>
-      </c>
-      <c r="K121" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">           </v>
-      </c>
-      <c r="L121">
-        <v>120</v>
-      </c>
-      <c r="M121" t="str">
-        <f t="shared" si="9"/>
-        <v>#define b3LVDSBiasRec_idx           120</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>121</v>
-      </c>
-      <c r="F122">
-        <f t="shared" si="5"/>
-        <v>22</v>
-      </c>
-      <c r="G122">
-        <f t="shared" si="6"/>
-        <v>29</v>
-      </c>
-      <c r="H122" t="s">
-        <v>122</v>
-      </c>
-      <c r="I122" t="str">
-        <f t="shared" si="7"/>
-        <v>b3TstAddrAna</v>
-      </c>
-      <c r="J122" t="s">
-        <v>123</v>
-      </c>
-      <c r="K122" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">            </v>
-      </c>
-      <c r="L122">
-        <v>121</v>
-      </c>
-      <c r="M122" t="str">
-        <f t="shared" si="9"/>
-        <v>#define b3TstAddrAna_idx            121</v>
+        <f t="shared" si="6"/>
+        <v>#define b3TstAddrAna_idx            112</v>
       </c>
     </row>
   </sheetData>
